--- a/labwork4/Сценарии тестирования.xlsx
+++ b/labwork4/Сценарии тестирования.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9F1E6-7DDA-4C6C-B7CA-105F2E7435B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="222">
   <si>
     <t>V1.0</t>
   </si>
@@ -147,9 +153,6 @@
   </si>
   <si>
     <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
   </si>
   <si>
     <t>1.1.1.2</t>
@@ -289,12 +292,6 @@
 4. Жмем сохранить"</t>
   </si>
   <si>
-    <t>1. Отчество: Иванович
-2. Должность: Генеральный директор
-3. Имя: Иван
-4. Жмем сохранить"</t>
-  </si>
-  <si>
     <t>Появление предупреждения об обязательном заполнении поля "Фамилия"</t>
   </si>
   <si>
@@ -439,12 +436,330 @@
   <si>
     <t>Предупреждение при попытке редактирования записи без поля "Должность"</t>
   </si>
+  <si>
+    <t>После открытия формы отображается страница списка сотрудников, которая содержит:</t>
+  </si>
+  <si>
+    <t>После открытия формы отображается страница списка сотрудников, которая содержит:
+разделы "Список проектов", "Список задач", "Список сотрудников", таблицу сорудников с кнопками "Изменить" и "Удалить", и кнопку добавления сотрудника</t>
+  </si>
+  <si>
+    <t>Проверка отображения элементов на странице</t>
+  </si>
+  <si>
+    <t>1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.1.6.1</t>
+  </si>
+  <si>
+    <t>Колонка Фамилия</t>
+  </si>
+  <si>
+    <t>Колонка Должность</t>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
+  </si>
+  <si>
+    <t>1.1.1.7.1</t>
+  </si>
+  <si>
+    <t>Корректное отображение латиницы</t>
+  </si>
+  <si>
+    <t>Корректное отображение кирилицы</t>
+  </si>
+  <si>
+    <t>Корректное отображение цифр</t>
+  </si>
+  <si>
+    <t>Корректное отображение специальных символов</t>
+  </si>
+  <si>
+    <t>Создаем новую запись с латиницей</t>
+  </si>
+  <si>
+    <t>Создаем новую запись с кирилицей</t>
+  </si>
+  <si>
+    <t>Создаем новую запись с цифрами</t>
+  </si>
+  <si>
+    <t>Создаем новую запись со специальными 
+символами</t>
+  </si>
+  <si>
+    <t>Все отображается корректно</t>
+  </si>
+  <si>
+    <t>1.1.1.6.2</t>
+  </si>
+  <si>
+    <t>1.1.1.6.3</t>
+  </si>
+  <si>
+    <t>1.1.1.6.4</t>
+  </si>
+  <si>
+    <t>1.1.1.7.2</t>
+  </si>
+  <si>
+    <t>1.1.1.7.3</t>
+  </si>
+  <si>
+    <t>1.1.1.7.4</t>
+  </si>
+  <si>
+    <t>1.1.2.10</t>
+  </si>
+  <si>
+    <t>1.1.2.10.1</t>
+  </si>
+  <si>
+    <t>Ввод цифр</t>
+  </si>
+  <si>
+    <t>1. На форме ввода сотрудника нажать на поле ввода названия сотрудника;
+2. Начать ввод названия сотрудника;
+3. Отредактировать введенные данные;
+4. Заполнить остальные поля;
+5. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>1. Поле ввода названия сотрудника находится в фокусе;
+2. Данные Ввод, вводимые символы отображаются в поле без маскировки и преобразований;
+3. Данные доступны для редактирования;
+5. Сохранение прошло успешно;</t>
+  </si>
+  <si>
+    <t>Ввод кирилицы</t>
+  </si>
+  <si>
+    <t>Ввод латиницы</t>
+  </si>
+  <si>
+    <t>Ввод допустимых специальных символов</t>
+  </si>
+  <si>
+    <t>Ввод недопустимых специальных символов</t>
+  </si>
+  <si>
+    <t>Пустое поле</t>
+  </si>
+  <si>
+    <t>Ввод букв в нижнем и верхнем регистре</t>
+  </si>
+  <si>
+    <t>Длинна введеных данных 2</t>
+  </si>
+  <si>
+    <t>Длинна введеных данных 255</t>
+  </si>
+  <si>
+    <t>Поле "Фамилия"</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке заполнения поля "Назввание сотрудника"</t>
+  </si>
+  <si>
+    <t>1. Заполнить остальные поля;
+2. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохранение сотрудника </t>
+  </si>
+  <si>
+    <t>Поле "Фамилия". 
+Добавление сотрудника</t>
+  </si>
+  <si>
+    <t>1. Ввести Фамилия;
+2. Заполнить остальные поля;
+3. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>1. Ввести Фамилия;
+3. Заполнить остальные поля;
+4. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>Поле "Имя"</t>
+  </si>
+  <si>
+    <t>1.1.2.11</t>
+  </si>
+  <si>
+    <t>Поле "Имя". 
+Добавление сотрудника</t>
+  </si>
+  <si>
+    <t>1. Ввести Имя;
+2. Заполнить остальные поля;
+3. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>1. Ввести Имя;
+3. Заполнить остальные поля;
+4. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>Поле "Отчество". 
+Добавление сотрудника</t>
+  </si>
+  <si>
+    <t>1. Ввести Отчество;
+2. Заполнить остальные поля;
+3. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>1. Ввести Отчество;
+3. Заполнить остальные поля;
+4. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>Поле "Отчество"</t>
+  </si>
+  <si>
+    <t>Поле "Должность"</t>
+  </si>
+  <si>
+    <t>Поле "Должность". 
+Добавление сотрудника</t>
+  </si>
+  <si>
+    <t>1. Ввести Должность;
+2. Заполнить остальные поля;
+3. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>1. Ввести Должность;
+3. Заполнить остальные поля;
+4. Нажать на кнопку сохранения сотрудника;</t>
+  </si>
+  <si>
+    <t>1.1.2.10.2</t>
+  </si>
+  <si>
+    <t>1.1.2.10.3</t>
+  </si>
+  <si>
+    <t>1.1.2.10.4</t>
+  </si>
+  <si>
+    <t>1.1.2.10.5</t>
+  </si>
+  <si>
+    <t>1.1.2.10.6</t>
+  </si>
+  <si>
+    <t>1.1.2.10.7</t>
+  </si>
+  <si>
+    <t>1.1.2.10.8</t>
+  </si>
+  <si>
+    <t>1.1.2.10.9</t>
+  </si>
+  <si>
+    <t>1.1.2.11.1</t>
+  </si>
+  <si>
+    <t>1.1.2.11.2</t>
+  </si>
+  <si>
+    <t>1.1.2.11.3</t>
+  </si>
+  <si>
+    <t>1.1.2.11.4</t>
+  </si>
+  <si>
+    <t>1.1.2.11.5</t>
+  </si>
+  <si>
+    <t>1.1.2.11.6</t>
+  </si>
+  <si>
+    <t>1.1.2.11.7</t>
+  </si>
+  <si>
+    <t>1.1.2.11.8</t>
+  </si>
+  <si>
+    <t>1.1.2.11.9</t>
+  </si>
+  <si>
+    <t>1.1.2.12</t>
+  </si>
+  <si>
+    <t>1.1.2.12.1</t>
+  </si>
+  <si>
+    <t>1.1.2.12.2</t>
+  </si>
+  <si>
+    <t>1.1.2.12.3</t>
+  </si>
+  <si>
+    <t>1.1.2.12.4</t>
+  </si>
+  <si>
+    <t>1.1.2.12.5</t>
+  </si>
+  <si>
+    <t>1.1.2.12.6</t>
+  </si>
+  <si>
+    <t>1.1.2.12.7</t>
+  </si>
+  <si>
+    <t>1.1.2.12.8</t>
+  </si>
+  <si>
+    <t>1.1.2.12.9</t>
+  </si>
+  <si>
+    <t>1.1.2.13</t>
+  </si>
+  <si>
+    <t>1.1.2.13.1</t>
+  </si>
+  <si>
+    <t>1.1.2.13.2</t>
+  </si>
+  <si>
+    <t>1.1.2.13.3</t>
+  </si>
+  <si>
+    <t>1.1.2.13.4</t>
+  </si>
+  <si>
+    <t>1.1.2.13.5</t>
+  </si>
+  <si>
+    <t>1.1.2.13.6</t>
+  </si>
+  <si>
+    <t>1.1.2.13.7</t>
+  </si>
+  <si>
+    <t>1.1.2.13.8</t>
+  </si>
+  <si>
+    <t>1.1.2.13.9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,15 +895,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -877,17 +1193,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,9 +1292,6 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1004,49 +1313,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1055,10 +1364,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,6 +1416,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,27 +1443,11 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
-    <cellStyle name="Примечание" xfId="4" builtinId="10"/>
+    <cellStyle name="Примечание" xfId="3" builtinId="10"/>
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1120,11 +1458,19 @@
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Легенда"/>
@@ -1189,7 +1535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,9 +1567,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,6 +1619,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1430,150 +1812,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="88.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" s="63"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="66"/>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1">
+    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1587,22 +1969,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1">
-      <c r="A16" s="48">
+    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
         <v>43616</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>118</v>
+      <c r="C16" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1611,11 +1998,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1623,33 +2005,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:E5"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="16" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="16" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25">
+    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1667,7 +2049,7 @@
       <c r="O1" s="23"/>
       <c r="P1" s="24"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>38</v>
       </c>
@@ -1675,26 +2057,26 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>39</v>
@@ -1739,828 +2121,2188 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="72"/>
-    </row>
-    <row r="5" spans="1:16" outlineLevel="1">
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
+    </row>
+    <row r="5" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="1:16" outlineLevel="1">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="76" t="s">
+      <c r="B7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="F7" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="1:16" ht="79.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="39.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+    </row>
+    <row r="20" spans="1:16" ht="39.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-    </row>
-    <row r="7" spans="1:16" outlineLevel="1">
-      <c r="A7" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-    </row>
-    <row r="8" spans="1:16" outlineLevel="1">
-      <c r="A8" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" outlineLevel="1">
-      <c r="A9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="B21" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" outlineLevel="1">
-      <c r="A10" s="33" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="39.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+    </row>
+    <row r="24" spans="1:16" ht="52.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="91"/>
+      <c r="D24" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="91"/>
+      <c r="D25" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+    </row>
+    <row r="26" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="91"/>
+      <c r="D26" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="91"/>
+      <c r="D28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+    </row>
+    <row r="29" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="91"/>
+      <c r="D29" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+    </row>
+    <row r="30" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="92"/>
+      <c r="D30" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+    </row>
+    <row r="32" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+    </row>
+    <row r="33" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+    </row>
+    <row r="34" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+    </row>
+    <row r="35" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+    </row>
+    <row r="36" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+    </row>
+    <row r="37" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+    </row>
+    <row r="38" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+    </row>
+    <row r="39" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+    </row>
+    <row r="40" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+    </row>
+    <row r="43" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+    </row>
+    <row r="44" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+    </row>
+    <row r="45" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+    </row>
+    <row r="46" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+    </row>
+    <row r="47" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+    </row>
+    <row r="48" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+    </row>
+    <row r="49" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+    </row>
+    <row r="50" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="47"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+    </row>
+    <row r="52" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+    </row>
+    <row r="53" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+    </row>
+    <row r="54" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+    </row>
+    <row r="55" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+    </row>
+    <row r="56" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+    </row>
+    <row r="57" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+    </row>
+    <row r="58" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+    </row>
+    <row r="59" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+    </row>
+    <row r="60" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="47"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+    </row>
+    <row r="62" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+    </row>
+    <row r="63" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+    </row>
+    <row r="64" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+    </row>
+    <row r="65" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+    </row>
+    <row r="66" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+    </row>
+    <row r="67" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+    </row>
+    <row r="68" spans="1:16" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+    </row>
+    <row r="69" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+    </row>
+    <row r="70" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B71" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+    </row>
+    <row r="72" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" ht="51" outlineLevel="1">
-      <c r="A11" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" ht="60" outlineLevel="1">
-      <c r="A12" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16" ht="51" outlineLevel="1">
-      <c r="A13" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="38" t="s">
+      <c r="D72" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+    </row>
+    <row r="73" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="91"/>
+      <c r="D73" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+    </row>
+    <row r="74" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="91"/>
+      <c r="D74" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+    </row>
+    <row r="75" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="91"/>
+      <c r="D75" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+    </row>
+    <row r="76" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" ht="60">
-      <c r="A14" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="38" t="s">
+      <c r="C76" s="91"/>
+      <c r="D76" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+    </row>
+    <row r="77" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" ht="75">
-      <c r="A15" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="1:16" ht="75">
-      <c r="A16" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="17" spans="1:16" ht="75">
-      <c r="A17" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-    </row>
-    <row r="18" spans="1:16" ht="25.5">
-      <c r="A18" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-    </row>
-    <row r="19" spans="1:16" ht="75">
-      <c r="A19" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="21" spans="1:16" ht="75">
-      <c r="A21" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-    </row>
-    <row r="22" spans="1:16" ht="45">
-      <c r="A22" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="40" t="s">
+      <c r="C77" s="91"/>
+      <c r="D77" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-    </row>
-    <row r="23" spans="1:16" ht="25.5">
-      <c r="A23" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-    </row>
-    <row r="24" spans="1:16" ht="45">
-      <c r="A24" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-    </row>
-    <row r="25" spans="1:16" ht="30">
-      <c r="A25" s="41" t="s">
+      <c r="E77" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+    </row>
+    <row r="78" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B78" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="40" t="s">
+      <c r="C78" s="91"/>
+      <c r="D78" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-    </row>
-    <row r="26" spans="1:16" ht="30">
-      <c r="A26" s="41" t="s">
+      <c r="E78" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+    </row>
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B79" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="40" t="s">
+      <c r="C79" s="92"/>
+      <c r="D79" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-    </row>
-    <row r="27" spans="1:16" ht="30">
-      <c r="A27" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="40" t="s">
+      <c r="E79" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-    </row>
-    <row r="28" spans="1:16" ht="45">
-      <c r="A28" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="75"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="20"/>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="20"/>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="20"/>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="20"/>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="20"/>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="20"/>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="20"/>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="20"/>
-      <c r="D51" s="42"/>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="20"/>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="20"/>
+      <c r="F79" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="82"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="83"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="F2:P2"/>
     <mergeCell ref="F4:P4"/>
-    <mergeCell ref="F29:P29"/>
-    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F80:P80"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C30"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65532:F65539 F983055:F983058 F917519:F917522 F851983:F851986 F786447:F786450 F720911:F720914 F655375:F655378 F589839:F589842 F524303:F524306 F458767:F458770 F393231:F393234 F327695:F327698 F262159:F262162 F196623:F196626 F131087:F131090 F65551:F65554 F983051:F983053 F917515:F917517 F851979:F851981 F786443:F786445 F720907:F720909 F655371:F655373 F589835:F589837 F524299:F524301 F458763:F458765 F393227:F393229 F327691:F327693 F262155:F262157 F196619:F196621 F131083:F131085 F65547:F65549 F983045:F983049 F917509:F917513 F851973:F851977 F786437:F786441 F720901:F720905 F655365:F655369 F589829:F589833 F524293:F524297 F458757:F458761 F393221:F393225 F327685:F327689 F262149:F262153 F196613:F196617 F131077:F131081 F65541:F65545 F983030:F983034 F917494:F917498 F851958:F851962 F786422:F786426 F720886:F720890 F655350:F655354 F589814:F589818 F524278:F524282 F458742:F458746 F393206:F393210 F327670:F327674 F262134:F262138 F196598:F196602 F131062:F131066 F65526:F65530 F983028 F917492 F851956 F786420 F720884 F655348 F589812 F524276 F458740 F393204 F327668 F262132 F196596 F131060 F65524 F983036:F983043 F917500:F917507 F851964:F851971 F786428:F786435 F720892:F720899 F655356:F655363 F589820:F589827 F524284:F524291 F458748:F458755 F393212:F393219 F327676:F327683 F262140:F262147 F196604:F196611 F131068:F131075">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65543:F65550 F983066:F983069 F917530:F917533 F851994:F851997 F786458:F786461 F720922:F720925 F655386:F655389 F589850:F589853 F524314:F524317 F458778:F458781 F393242:F393245 F327706:F327709 F262170:F262173 F196634:F196637 F131098:F131101 F65562:F65565 F983062:F983064 F917526:F917528 F851990:F851992 F786454:F786456 F720918:F720920 F655382:F655384 F589846:F589848 F524310:F524312 F458774:F458776 F393238:F393240 F327702:F327704 F262166:F262168 F196630:F196632 F131094:F131096 F65558:F65560 F983056:F983060 F917520:F917524 F851984:F851988 F786448:F786452 F720912:F720916 F655376:F655380 F589840:F589844 F524304:F524308 F458768:F458772 F393232:F393236 F327696:F327700 F262160:F262164 F196624:F196628 F131088:F131092 F65552:F65556 F983041:F983045 F917505:F917509 F851969:F851973 F786433:F786437 F720897:F720901 F655361:F655365 F589825:F589829 F524289:F524293 F458753:F458757 F393217:F393221 F327681:F327685 F262145:F262149 F196609:F196613 F131073:F131077 F65537:F65541 F983039 F917503 F851967 F786431 F720895 F655359 F589823 F524287 F458751 F393215 F327679 F262143 F196607 F131071 F65535 F983047:F983054 F917511:F917518 F851975:F851982 F786439:F786446 F720903:F720910 F655367:F655374 F589831:F589838 F524295:F524302 F458759:F458766 F393223:F393230 F327687:F327694 F262151:F262158 F196615:F196622 F131079:F131086" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/labwork4/Сценарии тестирования.xlsx
+++ b/labwork4/Сценарии тестирования.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9F1E6-7DDA-4C6C-B7CA-105F2E7435B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9D5FDB-7642-4684-B553-0F13BAB42151}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="222">
   <si>
     <t>V1.0</t>
   </si>
@@ -1199,7 +1199,7 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,6 +1356,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1364,37 +1391,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,6 +1442,15 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1835,20 +1844,20 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1857,103 +1866,103 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:7" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -1985,11 +1994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1998,6 +2002,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2012,10 +2021,10 @@
   <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2881,7 +2890,7 @@
       <c r="B32" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="93" t="s">
         <v>169</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -2911,9 +2920,7 @@
       <c r="B33" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C33" s="94"/>
       <c r="D33" s="51" t="s">
         <v>155</v>
       </c>
@@ -2941,9 +2948,7 @@
       <c r="B34" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C34" s="94"/>
       <c r="D34" s="51" t="s">
         <v>155</v>
       </c>
@@ -2971,9 +2976,7 @@
       <c r="B35" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C35" s="94"/>
       <c r="D35" s="51" t="s">
         <v>155</v>
       </c>
@@ -3001,9 +3004,7 @@
       <c r="B36" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C36" s="94"/>
       <c r="D36" s="51" t="s">
         <v>170</v>
       </c>
@@ -3031,9 +3032,7 @@
       <c r="B37" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C37" s="94"/>
       <c r="D37" s="51" t="s">
         <v>167</v>
       </c>
@@ -3061,9 +3060,7 @@
       <c r="B38" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C38" s="94"/>
       <c r="D38" s="51" t="s">
         <v>155</v>
       </c>
@@ -3091,9 +3088,7 @@
       <c r="B39" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C39" s="94"/>
       <c r="D39" s="51" t="s">
         <v>171</v>
       </c>
@@ -3121,9 +3116,7 @@
       <c r="B40" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>169</v>
-      </c>
+      <c r="C40" s="95"/>
       <c r="D40" s="51" t="s">
         <v>171</v>
       </c>
@@ -3170,7 +3163,7 @@
       <c r="B42" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="93" t="s">
         <v>174</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -3200,9 +3193,7 @@
       <c r="B43" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C43" s="94"/>
       <c r="D43" s="51" t="s">
         <v>155</v>
       </c>
@@ -3230,9 +3221,7 @@
       <c r="B44" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C44" s="94"/>
       <c r="D44" s="51" t="s">
         <v>155</v>
       </c>
@@ -3260,9 +3249,7 @@
       <c r="B45" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C45" s="94"/>
       <c r="D45" s="51" t="s">
         <v>155</v>
       </c>
@@ -3290,9 +3277,7 @@
       <c r="B46" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C46" s="94"/>
       <c r="D46" s="51" t="s">
         <v>175</v>
       </c>
@@ -3320,9 +3305,7 @@
       <c r="B47" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C47" s="94"/>
       <c r="D47" s="51" t="s">
         <v>167</v>
       </c>
@@ -3350,9 +3333,7 @@
       <c r="B48" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C48" s="94"/>
       <c r="D48" s="51" t="s">
         <v>155</v>
       </c>
@@ -3380,9 +3361,7 @@
       <c r="B49" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C49" s="94"/>
       <c r="D49" s="51" t="s">
         <v>176</v>
       </c>
@@ -3410,9 +3389,7 @@
       <c r="B50" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="C50" s="95"/>
       <c r="D50" s="51" t="s">
         <v>176</v>
       </c>
@@ -3459,7 +3436,7 @@
       <c r="B52" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="93" t="s">
         <v>177</v>
       </c>
       <c r="D52" s="51" t="s">
@@ -3489,9 +3466,7 @@
       <c r="B53" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C53" s="94"/>
       <c r="D53" s="51" t="s">
         <v>155</v>
       </c>
@@ -3519,9 +3494,7 @@
       <c r="B54" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C54" s="94"/>
       <c r="D54" s="51" t="s">
         <v>155</v>
       </c>
@@ -3549,9 +3522,7 @@
       <c r="B55" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C55" s="94"/>
       <c r="D55" s="51" t="s">
         <v>155</v>
       </c>
@@ -3579,9 +3550,7 @@
       <c r="B56" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C56" s="94"/>
       <c r="D56" s="51" t="s">
         <v>178</v>
       </c>
@@ -3609,9 +3578,7 @@
       <c r="B57" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C57" s="94"/>
       <c r="D57" s="51" t="s">
         <v>167</v>
       </c>
@@ -3639,9 +3606,7 @@
       <c r="B58" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C58" s="94"/>
       <c r="D58" s="51" t="s">
         <v>155</v>
       </c>
@@ -3669,9 +3634,7 @@
       <c r="B59" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C59" s="94"/>
       <c r="D59" s="51" t="s">
         <v>179</v>
       </c>
@@ -3699,9 +3662,7 @@
       <c r="B60" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="51" t="s">
-        <v>177</v>
-      </c>
+      <c r="C60" s="95"/>
       <c r="D60" s="51" t="s">
         <v>179</v>
       </c>
@@ -3748,7 +3709,7 @@
       <c r="B62" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="93" t="s">
         <v>182</v>
       </c>
       <c r="D62" s="51" t="s">
@@ -3778,9 +3739,7 @@
       <c r="B63" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C63" s="94"/>
       <c r="D63" s="51" t="s">
         <v>155</v>
       </c>
@@ -3808,9 +3767,7 @@
       <c r="B64" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C64" s="94"/>
       <c r="D64" s="51" t="s">
         <v>155</v>
       </c>
@@ -3838,9 +3795,7 @@
       <c r="B65" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C65" s="94"/>
       <c r="D65" s="51" t="s">
         <v>155</v>
       </c>
@@ -3868,9 +3823,7 @@
       <c r="B66" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C66" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C66" s="94"/>
       <c r="D66" s="51" t="s">
         <v>183</v>
       </c>
@@ -3898,9 +3851,7 @@
       <c r="B67" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C67" s="94"/>
       <c r="D67" s="51" t="s">
         <v>167</v>
       </c>
@@ -3928,9 +3879,7 @@
       <c r="B68" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C68" s="94"/>
       <c r="D68" s="51" t="s">
         <v>155</v>
       </c>
@@ -3958,9 +3907,7 @@
       <c r="B69" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C69" s="94"/>
       <c r="D69" s="51" t="s">
         <v>184</v>
       </c>
@@ -3988,9 +3935,7 @@
       <c r="B70" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="51" t="s">
-        <v>182</v>
-      </c>
+      <c r="C70" s="95"/>
       <c r="D70" s="51" t="s">
         <v>184</v>
       </c>
@@ -4281,7 +4226,8 @@
       <c r="C118" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="C62:C70"/>
     <mergeCell ref="F2:P2"/>
     <mergeCell ref="F4:P4"/>
     <mergeCell ref="F80:P80"/>
@@ -4295,6 +4241,9 @@
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C22:C30"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="C52:C60"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65543:F65550 F983066:F983069 F917530:F917533 F851994:F851997 F786458:F786461 F720922:F720925 F655386:F655389 F589850:F589853 F524314:F524317 F458778:F458781 F393242:F393245 F327706:F327709 F262170:F262173 F196634:F196637 F131098:F131101 F65562:F65565 F983062:F983064 F917526:F917528 F851990:F851992 F786454:F786456 F720918:F720920 F655382:F655384 F589846:F589848 F524310:F524312 F458774:F458776 F393238:F393240 F327702:F327704 F262166:F262168 F196630:F196632 F131094:F131096 F65558:F65560 F983056:F983060 F917520:F917524 F851984:F851988 F786448:F786452 F720912:F720916 F655376:F655380 F589840:F589844 F524304:F524308 F458768:F458772 F393232:F393236 F327696:F327700 F262160:F262164 F196624:F196628 F131088:F131092 F65552:F65556 F983041:F983045 F917505:F917509 F851969:F851973 F786433:F786437 F720897:F720901 F655361:F655365 F589825:F589829 F524289:F524293 F458753:F458757 F393217:F393221 F327681:F327685 F262145:F262149 F196609:F196613 F131073:F131077 F65537:F65541 F983039 F917503 F851967 F786431 F720895 F655359 F589823 F524287 F458751 F393215 F327679 F262143 F196607 F131071 F65535 F983047:F983054 F917511:F917518 F851975:F851982 F786439:F786446 F720903:F720910 F655367:F655374 F589831:F589838 F524295:F524302 F458759:F458766 F393223:F393230 F327687:F327694 F262151:F262158 F196615:F196622 F131079:F131086" xr:uid="{00000000-0002-0000-0100-000000000000}">
